--- a/project/cpdc-g/g/changeXlsx/input/demo.xlsx
+++ b/project/cpdc-g/g/changeXlsx/input/demo.xlsx
@@ -123,7 +123,7 @@
     <t>吸烟史#YXA_O_27</t>
   </si>
   <si>
-    <t>喝酒史#YXA_O_28</t>
+    <t>喝酒史#YXA_O_028</t>
   </si>
   <si>
     <t>每日饮酒#YXA_O_29</t>
@@ -1669,6 +1669,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访日期</t>
     </r>
     <r>
@@ -1684,6 +1691,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访时长</t>
     </r>
     <r>
@@ -1699,6 +1713,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一般状况</t>
     </r>
     <r>
@@ -1732,6 +1753,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访日期</t>
     </r>
     <r>
@@ -1747,6 +1775,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访时长</t>
     </r>
     <r>
@@ -1762,6 +1797,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一般状况</t>
     </r>
     <r>
@@ -1792,6 +1834,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访日期</t>
     </r>
     <r>
@@ -1807,6 +1856,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访时长</t>
     </r>
     <r>
@@ -1822,6 +1878,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一般状况</t>
     </r>
     <r>
@@ -1852,6 +1915,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访日期</t>
     </r>
     <r>
@@ -1867,6 +1937,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访时长</t>
     </r>
     <r>
@@ -1882,6 +1959,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一般状况</t>
     </r>
     <r>
@@ -1912,6 +1995,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访日期</t>
     </r>
     <r>
@@ -1927,6 +2017,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>随访时长</t>
     </r>
     <r>
@@ -1942,6 +2038,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一般状况</t>
     </r>
     <r>
@@ -3567,12 +3670,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -3721,31 +3824,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3758,18 +3847,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3778,14 +3860,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3810,15 +3884,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3826,9 +3923,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3840,7 +3945,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3856,6 +3960,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3863,12 +3968,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3924,43 +4027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3984,7 +4051,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3996,7 +4087,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4008,13 +4141,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4026,19 +4171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4050,43 +4189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4252,32 +4355,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4307,6 +4389,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4321,11 +4418,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4357,10 +4460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4369,140 +4472,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4601,8 +4704,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4623,7 +4726,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4633,12 +4736,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4662,8 +4765,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4689,34 +4792,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4724,17 +4821,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4769,23 +4860,17 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5115,8 +5200,8 @@
   <sheetPr/>
   <dimension ref="A1:PA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MF1" workbookViewId="0">
-      <selection activeCell="MY1" sqref="MY1"/>
+    <sheetView tabSelected="1" topLeftCell="OE1" workbookViewId="0">
+      <selection activeCell="OP1" sqref="OP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -5728,7 +5813,7 @@
       <c r="EA1" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="68" t="s">
+      <c r="EB1" s="43" t="s">
         <v>131</v>
       </c>
       <c r="EC1" s="64" t="s">
@@ -5740,37 +5825,37 @@
       <c r="EE1" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="69" t="s">
+      <c r="EF1" s="68" t="s">
         <v>135</v>
       </c>
       <c r="EG1" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="69" t="s">
+      <c r="EH1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="69" t="s">
+      <c r="EI1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="69" t="s">
+      <c r="EJ1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="69" t="s">
+      <c r="EK1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="69" t="s">
+      <c r="EL1" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="69" t="s">
+      <c r="EM1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="69" t="s">
+      <c r="EN1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="69" t="s">
+      <c r="EO1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="69" t="s">
+      <c r="EP1" s="68" t="s">
         <v>145</v>
       </c>
       <c r="EQ1" s="42" t="s">
@@ -5785,31 +5870,31 @@
       <c r="ET1" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="69" t="s">
+      <c r="EU1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="69" t="s">
+      <c r="EV1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="69" t="s">
+      <c r="EW1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="69" t="s">
+      <c r="EX1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="69" t="s">
+      <c r="EY1" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="69" t="s">
+      <c r="EZ1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="69" t="s">
+      <c r="FA1" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="69" t="s">
+      <c r="FB1" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="69" t="s">
+      <c r="FC1" s="68" t="s">
         <v>158</v>
       </c>
       <c r="FD1" s="55" t="s">
@@ -5824,7 +5909,7 @@
       <c r="FG1" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="70" t="s">
+      <c r="FH1" s="55" t="s">
         <v>163</v>
       </c>
       <c r="FI1" s="52" t="s">
@@ -5854,7 +5939,7 @@
       <c r="FQ1" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="72" t="s">
+      <c r="FR1" s="70" t="s">
         <v>173</v>
       </c>
       <c r="FS1" s="43" t="s">
@@ -5902,154 +5987,154 @@
       <c r="GG1" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="73" t="s">
+      <c r="GH1" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="74" t="s">
+      <c r="GI1" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="74" t="s">
+      <c r="GJ1" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="74" t="s">
+      <c r="GK1" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="74" t="s">
+      <c r="GL1" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="74" t="s">
+      <c r="GM1" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="74" t="s">
+      <c r="GN1" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="74" t="s">
+      <c r="GO1" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="74" t="s">
+      <c r="GP1" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="74" t="s">
+      <c r="GQ1" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="74" t="s">
+      <c r="GR1" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="74" t="s">
+      <c r="GS1" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="74" t="s">
+      <c r="GT1" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="74" t="s">
+      <c r="GU1" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="74" t="s">
+      <c r="GV1" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="74" t="s">
+      <c r="GW1" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="73" t="s">
+      <c r="GX1" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="73" t="s">
+      <c r="GY1" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="74" t="s">
+      <c r="GZ1" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="74" t="s">
+      <c r="HA1" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="74" t="s">
+      <c r="HB1" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="74" t="s">
+      <c r="HC1" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="74" t="s">
+      <c r="HD1" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="74" t="s">
+      <c r="HE1" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="74" t="s">
+      <c r="HF1" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="74" t="s">
+      <c r="HG1" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="74" t="s">
+      <c r="HH1" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="74" t="s">
+      <c r="HI1" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="74" t="s">
+      <c r="HJ1" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="74" t="s">
+      <c r="HK1" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="74" t="s">
+      <c r="HL1" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="74" t="s">
+      <c r="HM1" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="76" t="s">
+      <c r="HN1" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="76" t="s">
+      <c r="HO1" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="74" t="s">
+      <c r="HP1" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="74" t="s">
+      <c r="HQ1" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="74" t="s">
+      <c r="HR1" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="74" t="s">
+      <c r="HS1" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="74" t="s">
+      <c r="HT1" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="74" t="s">
+      <c r="HU1" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="74" t="s">
+      <c r="HV1" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="74" t="s">
+      <c r="HW1" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="74" t="s">
+      <c r="HX1" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="74" t="s">
+      <c r="HY1" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="74" t="s">
+      <c r="HZ1" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="74" t="s">
+      <c r="IA1" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="74" t="s">
+      <c r="IB1" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="74" t="s">
+      <c r="IC1" s="72" t="s">
         <v>236</v>
       </c>
       <c r="ID1" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="79" t="s">
+      <c r="IE1" s="52" t="s">
         <v>238</v>
       </c>
       <c r="IF1" s="43" t="s">
@@ -6058,31 +6143,31 @@
       <c r="IG1" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="79" t="s">
+      <c r="IH1" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="79" t="s">
+      <c r="II1" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="80" t="s">
+      <c r="IJ1" s="77" t="s">
         <v>243</v>
       </c>
       <c r="IK1" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="80" t="s">
+      <c r="IL1" s="77" t="s">
         <v>245</v>
       </c>
       <c r="IM1" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" s="80" t="s">
+      <c r="IN1" s="77" t="s">
         <v>247</v>
       </c>
       <c r="IO1" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" s="80" t="s">
+      <c r="IP1" s="77" t="s">
         <v>249</v>
       </c>
       <c r="IQ1" s="52" t="s">
@@ -6100,7 +6185,7 @@
       <c r="IU1" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="IV1" s="80" t="s">
+      <c r="IV1" s="77" t="s">
         <v>255</v>
       </c>
       <c r="IW1" s="52" t="s">
@@ -6184,7 +6269,7 @@
       <c r="JW1" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="JX1" s="79" t="s">
+      <c r="JX1" s="52" t="s">
         <v>283</v>
       </c>
       <c r="JY1" s="58" t="s">
@@ -6193,13 +6278,13 @@
       <c r="JZ1" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="KA1" s="81" t="s">
+      <c r="KA1" s="78" t="s">
         <v>286</v>
       </c>
       <c r="KB1" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="KC1" s="82" t="s">
+      <c r="KC1" s="77" t="s">
         <v>288</v>
       </c>
       <c r="KD1" s="42" t="s">
@@ -6214,40 +6299,40 @@
       <c r="KG1" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="KH1" s="81" t="s">
+      <c r="KH1" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="KI1" s="81" t="s">
+      <c r="KI1" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="KJ1" s="81" t="s">
+      <c r="KJ1" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="KK1" s="81" t="s">
+      <c r="KK1" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="KL1" s="81" t="s">
+      <c r="KL1" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="KM1" s="81" t="s">
+      <c r="KM1" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="KN1" s="81" t="s">
+      <c r="KN1" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="KO1" s="81" t="s">
+      <c r="KO1" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="KP1" s="81" t="s">
+      <c r="KP1" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="KQ1" s="81" t="s">
+      <c r="KQ1" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="KR1" s="81" t="s">
+      <c r="KR1" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="KS1" s="81" t="s">
+      <c r="KS1" s="78" t="s">
         <v>304</v>
       </c>
       <c r="KT1" s="42" t="s">
@@ -6265,250 +6350,250 @@
       <c r="KX1" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="KY1" s="83" t="s">
+      <c r="KY1" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="KZ1" s="84" t="s">
+      <c r="KZ1" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="LA1" s="83" t="s">
+      <c r="LA1" s="79" t="s">
         <v>312</v>
       </c>
-      <c r="LB1" s="88" t="s">
+      <c r="LB1" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="LC1" s="88" t="s">
+      <c r="LC1" s="84" t="s">
         <v>314</v>
       </c>
-      <c r="LD1" s="88" t="s">
+      <c r="LD1" s="84" t="s">
         <v>315</v>
       </c>
-      <c r="LE1" s="89" t="s">
+      <c r="LE1" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="LF1" s="88" t="s">
+      <c r="LF1" s="84" t="s">
         <v>317</v>
       </c>
-      <c r="LG1" s="88" t="s">
+      <c r="LG1" s="84" t="s">
         <v>318</v>
       </c>
-      <c r="LH1" s="83" t="s">
+      <c r="LH1" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="LI1" s="83" t="s">
+      <c r="LI1" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="LJ1" s="83" t="s">
+      <c r="LJ1" s="79" t="s">
         <v>321</v>
       </c>
-      <c r="LK1" s="88" t="s">
+      <c r="LK1" s="84" t="s">
         <v>322</v>
       </c>
-      <c r="LL1" s="88" t="s">
+      <c r="LL1" s="84" t="s">
         <v>323</v>
       </c>
-      <c r="LM1" s="88" t="s">
+      <c r="LM1" s="84" t="s">
         <v>324</v>
       </c>
-      <c r="LN1" s="89" t="s">
+      <c r="LN1" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="LO1" s="88" t="s">
+      <c r="LO1" s="84" t="s">
         <v>325</v>
       </c>
-      <c r="LP1" s="88" t="s">
+      <c r="LP1" s="84" t="s">
         <v>326</v>
       </c>
-      <c r="LQ1" s="83" t="s">
+      <c r="LQ1" s="79" t="s">
         <v>327</v>
       </c>
-      <c r="LR1" s="83" t="s">
+      <c r="LR1" s="79" t="s">
         <v>328</v>
       </c>
-      <c r="LS1" s="83" t="s">
+      <c r="LS1" s="79" t="s">
         <v>329</v>
       </c>
-      <c r="LT1" s="90" t="s">
+      <c r="LT1" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="LU1" s="90" t="s">
+      <c r="LU1" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="LV1" s="90" t="s">
+      <c r="LV1" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="LW1" s="91" t="s">
+      <c r="LW1" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="LX1" s="90" t="s">
+      <c r="LX1" s="86" t="s">
         <v>333</v>
       </c>
-      <c r="LY1" s="90" t="s">
+      <c r="LY1" s="86" t="s">
         <v>334</v>
       </c>
-      <c r="LZ1" s="83" t="s">
+      <c r="LZ1" s="79" t="s">
         <v>335</v>
       </c>
-      <c r="MA1" s="84" t="s">
+      <c r="MA1" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="MB1" s="92" t="s">
+      <c r="MB1" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="MC1" s="88" t="s">
+      <c r="MC1" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="MD1" s="88" t="s">
+      <c r="MD1" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="ME1" s="88" t="s">
+      <c r="ME1" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="MF1" s="91" t="s">
+      <c r="MF1" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="MG1" s="88" t="s">
+      <c r="MG1" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="MH1" s="88" t="s">
+      <c r="MH1" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="MI1" s="83" t="s">
+      <c r="MI1" s="79" t="s">
         <v>343</v>
       </c>
-      <c r="MJ1" s="93" t="s">
+      <c r="MJ1" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="MK1" s="83" t="s">
+      <c r="MK1" s="79" t="s">
         <v>345</v>
       </c>
-      <c r="ML1" s="88" t="s">
+      <c r="ML1" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="MM1" s="88" t="s">
+      <c r="MM1" s="84" t="s">
         <v>347</v>
       </c>
-      <c r="MN1" s="88" t="s">
+      <c r="MN1" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="MO1" s="89" t="s">
+      <c r="MO1" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="MP1" s="88" t="s">
+      <c r="MP1" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="MQ1" s="88" t="s">
+      <c r="MQ1" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="MR1" s="94" t="s">
+      <c r="MR1" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="MS1" s="95" t="s">
+      <c r="MS1" s="91" t="s">
         <v>352</v>
       </c>
-      <c r="MT1" s="96" t="s">
+      <c r="MT1" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="MU1" s="94" t="s">
+      <c r="MU1" s="90" t="s">
         <v>354</v>
       </c>
-      <c r="MV1" s="97" t="s">
+      <c r="MV1" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="MW1" s="99" t="s">
+      <c r="MW1" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="MX1" s="99" t="s">
+      <c r="MX1" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="MY1" s="100" t="s">
+      <c r="MY1" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="MZ1" s="99" t="s">
+      <c r="MZ1" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="NA1" s="99" t="s">
+      <c r="NA1" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="NB1" s="99" t="s">
+      <c r="NB1" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="NC1" s="99" t="s">
+      <c r="NC1" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="ND1" s="99" t="s">
+      <c r="ND1" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="NE1" s="99" t="s">
+      <c r="NE1" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="NF1" s="99" t="s">
+      <c r="NF1" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="NG1" s="99" t="s">
+      <c r="NG1" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="NH1" s="99" t="s">
+      <c r="NH1" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="NI1" s="99" t="s">
+      <c r="NI1" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="NJ1" s="99" t="s">
+      <c r="NJ1" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="NK1" s="99" t="s">
+      <c r="NK1" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="NL1" s="99" t="s">
+      <c r="NL1" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="NM1" s="99" t="s">
+      <c r="NM1" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="NN1" s="99" t="s">
+      <c r="NN1" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="NO1" s="99" t="s">
+      <c r="NO1" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="NP1" s="99" t="s">
+      <c r="NP1" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="NQ1" s="99" t="s">
+      <c r="NQ1" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="NR1" s="99" t="s">
+      <c r="NR1" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="NS1" s="99" t="s">
+      <c r="NS1" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="NT1" s="99" t="s">
+      <c r="NT1" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="NU1" s="99" t="s">
+      <c r="NU1" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="NV1" s="99" t="s">
+      <c r="NV1" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="NW1" s="99" t="s">
+      <c r="NW1" s="71" t="s">
         <v>375</v>
       </c>
-      <c r="NX1" s="99" t="s">
+      <c r="NX1" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="NY1" s="99" t="s">
+      <c r="NY1" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="NZ1" s="99" t="s">
+      <c r="NZ1" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="OA1" s="99" t="s">
+      <c r="OA1" s="71" t="s">
         <v>378</v>
       </c>
-      <c r="OB1" s="99" t="s">
+      <c r="OB1" s="71" t="s">
         <v>379</v>
       </c>
       <c r="OC1" s="43" t="s">
@@ -6520,13 +6605,13 @@
       <c r="OE1" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="OF1" s="101" t="s">
+      <c r="OF1" s="95" t="s">
         <v>383</v>
       </c>
-      <c r="OG1" s="101" t="s">
+      <c r="OG1" s="95" t="s">
         <v>384</v>
       </c>
-      <c r="OH1" s="102" t="s">
+      <c r="OH1" s="96" t="s">
         <v>385</v>
       </c>
       <c r="OI1" s="42" t="s">
@@ -6556,7 +6641,7 @@
       <c r="OQ1" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="OR1" s="101" t="s">
+      <c r="OR1" s="95" t="s">
         <v>395</v>
       </c>
       <c r="OS1" s="43" t="s">
@@ -6600,7 +6685,7 @@
       <c r="D2" s="44">
         <v>2</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="97" t="s">
         <v>407</v>
       </c>
       <c r="F2" s="45" t="s">
@@ -6957,7 +7042,7 @@
       <c r="FG2" s="44">
         <v>1</v>
       </c>
-      <c r="FH2" s="71" t="s">
+      <c r="FH2" s="69" t="s">
         <v>420</v>
       </c>
       <c r="FI2" s="45">
@@ -7025,7 +7110,7 @@
       <c r="GG2" s="56" t="s">
         <v>420</v>
       </c>
-      <c r="GH2" s="75" t="s">
+      <c r="GH2" s="73" t="s">
         <v>422</v>
       </c>
       <c r="GI2" s="54">
@@ -7334,85 +7419,85 @@
       <c r="KV2" s="56"/>
       <c r="KW2" s="56"/>
       <c r="KX2" s="56"/>
-      <c r="KY2" s="85">
+      <c r="KY2" s="81">
         <v>43214</v>
       </c>
-      <c r="KZ2" s="86" t="s">
+      <c r="KZ2" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="LA2" s="87" t="s">
+      <c r="LA2" s="83" t="s">
         <v>426</v>
       </c>
-      <c r="LB2" s="87"/>
-      <c r="LC2" s="87"/>
-      <c r="LD2" s="87"/>
-      <c r="LE2" s="87"/>
-      <c r="LF2" s="87"/>
-      <c r="LG2" s="87"/>
-      <c r="LH2" s="85">
+      <c r="LB2" s="83"/>
+      <c r="LC2" s="83"/>
+      <c r="LD2" s="83"/>
+      <c r="LE2" s="83"/>
+      <c r="LF2" s="83"/>
+      <c r="LG2" s="83"/>
+      <c r="LH2" s="81">
         <v>43308</v>
       </c>
-      <c r="LI2" s="87">
+      <c r="LI2" s="83">
         <v>3</v>
       </c>
-      <c r="LJ2" s="87" t="s">
+      <c r="LJ2" s="83" t="s">
         <v>427</v>
       </c>
-      <c r="LK2" s="87"/>
-      <c r="LL2" s="87"/>
-      <c r="LM2" s="87"/>
-      <c r="LN2" s="87"/>
-      <c r="LO2" s="87"/>
-      <c r="LP2" s="87"/>
-      <c r="LQ2" s="85">
+      <c r="LK2" s="83"/>
+      <c r="LL2" s="83"/>
+      <c r="LM2" s="83"/>
+      <c r="LN2" s="83"/>
+      <c r="LO2" s="83"/>
+      <c r="LP2" s="83"/>
+      <c r="LQ2" s="81">
         <v>43434</v>
       </c>
-      <c r="LR2" s="87">
+      <c r="LR2" s="83">
         <v>3</v>
       </c>
-      <c r="LS2" s="87" t="s">
+      <c r="LS2" s="83" t="s">
         <v>428</v>
       </c>
-      <c r="LT2" s="87"/>
-      <c r="LU2" s="87"/>
-      <c r="LV2" s="87"/>
-      <c r="LW2" s="87"/>
-      <c r="LX2" s="87"/>
-      <c r="LY2" s="87"/>
-      <c r="LZ2" s="85">
+      <c r="LT2" s="83"/>
+      <c r="LU2" s="83"/>
+      <c r="LV2" s="83"/>
+      <c r="LW2" s="83"/>
+      <c r="LX2" s="83"/>
+      <c r="LY2" s="83"/>
+      <c r="LZ2" s="81">
         <v>43537</v>
       </c>
-      <c r="MA2" s="86">
+      <c r="MA2" s="82">
         <v>3</v>
       </c>
-      <c r="MB2" s="87" t="s">
+      <c r="MB2" s="83" t="s">
         <v>429</v>
       </c>
-      <c r="MC2" s="87"/>
-      <c r="MD2" s="87"/>
-      <c r="ME2" s="87"/>
-      <c r="MF2" s="87"/>
-      <c r="MG2" s="87"/>
-      <c r="MH2" s="87"/>
-      <c r="MI2" s="85">
+      <c r="MC2" s="83"/>
+      <c r="MD2" s="83"/>
+      <c r="ME2" s="83"/>
+      <c r="MF2" s="83"/>
+      <c r="MG2" s="83"/>
+      <c r="MH2" s="83"/>
+      <c r="MI2" s="81">
         <v>43640</v>
       </c>
-      <c r="MJ2" s="86">
+      <c r="MJ2" s="82">
         <v>3</v>
       </c>
-      <c r="MK2" s="87" t="s">
+      <c r="MK2" s="83" t="s">
         <v>430</v>
       </c>
-      <c r="ML2" s="87"/>
-      <c r="MM2" s="87"/>
-      <c r="MN2" s="87"/>
-      <c r="MO2" s="87"/>
-      <c r="MP2" s="87"/>
-      <c r="MQ2" s="87"/>
+      <c r="ML2" s="83"/>
+      <c r="MM2" s="83"/>
+      <c r="MN2" s="83"/>
+      <c r="MO2" s="83"/>
+      <c r="MP2" s="83"/>
+      <c r="MQ2" s="83"/>
       <c r="MR2" s="56">
         <v>2</v>
       </c>
-      <c r="MS2" s="98" t="s">
+      <c r="MS2" s="93" t="s">
         <v>420</v>
       </c>
       <c r="MT2" s="56" t="s">
@@ -7421,7 +7506,7 @@
       <c r="MU2" s="56">
         <v>2</v>
       </c>
-      <c r="MV2" s="98" t="s">
+      <c r="MV2" s="93" t="s">
         <v>420</v>
       </c>
       <c r="MW2" s="45" t="s">
@@ -7430,7 +7515,7 @@
       <c r="MX2" s="45">
         <v>2</v>
       </c>
-      <c r="MY2" s="85" t="s">
+      <c r="MY2" s="81" t="s">
         <v>420</v>
       </c>
       <c r="MZ2" s="45" t="s">
@@ -7553,25 +7638,25 @@
       <c r="OS2" s="44">
         <v>0</v>
       </c>
-      <c r="OT2" s="77" t="s">
+      <c r="OT2" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="OU2" s="77" t="s">
+      <c r="OU2" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="OV2" s="77" t="s">
+      <c r="OV2" s="75" t="s">
         <v>433</v>
       </c>
       <c r="OW2" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="OX2" s="77" t="s">
+      <c r="OX2" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="OY2" s="77" t="s">
+      <c r="OY2" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="OZ2" s="77" t="s">
+      <c r="OZ2" s="75" t="s">
         <v>433</v>
       </c>
       <c r="PA2" s="44" t="s">
@@ -7591,7 +7676,7 @@
       <c r="D3" s="44">
         <v>2</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="97" t="s">
         <v>437</v>
       </c>
       <c r="F3" s="45" t="s">
@@ -7948,7 +8033,7 @@
       <c r="FG3" s="44">
         <v>1</v>
       </c>
-      <c r="FH3" s="71" t="s">
+      <c r="FH3" s="69" t="s">
         <v>420</v>
       </c>
       <c r="FI3" s="45">
@@ -8018,7 +8103,7 @@
       <c r="GG3" s="56" t="s">
         <v>420</v>
       </c>
-      <c r="GH3" s="75" t="s">
+      <c r="GH3" s="73" t="s">
         <v>422</v>
       </c>
       <c r="GI3" s="54">
@@ -8114,52 +8199,52 @@
       <c r="HM3" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="HN3" s="77" t="s">
+      <c r="HN3" s="75" t="s">
         <v>420</v>
       </c>
-      <c r="HO3" s="77">
+      <c r="HO3" s="75">
         <v>0</v>
       </c>
-      <c r="HP3" s="78" t="s">
+      <c r="HP3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HQ3" s="78" t="s">
+      <c r="HQ3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HR3" s="78" t="s">
+      <c r="HR3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HS3" s="78" t="s">
+      <c r="HS3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HT3" s="78" t="s">
+      <c r="HT3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HU3" s="78" t="s">
+      <c r="HU3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HV3" s="78" t="s">
+      <c r="HV3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HW3" s="78" t="s">
+      <c r="HW3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HX3" s="78" t="s">
+      <c r="HX3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HY3" s="78" t="s">
+      <c r="HY3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="HZ3" s="78" t="s">
+      <c r="HZ3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="IA3" s="78" t="s">
+      <c r="IA3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="IB3" s="78" t="s">
+      <c r="IB3" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="IC3" s="78" t="s">
+      <c r="IC3" s="76" t="s">
         <v>420</v>
       </c>
       <c r="ID3" s="56" t="s">
@@ -8327,145 +8412,145 @@
       <c r="KV3" s="56"/>
       <c r="KW3" s="56"/>
       <c r="KX3" s="56"/>
-      <c r="KY3" s="87" t="s">
+      <c r="KY3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="KZ3" s="87" t="s">
+      <c r="KZ3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LA3" s="87" t="s">
+      <c r="LA3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LB3" s="87" t="s">
+      <c r="LB3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LC3" s="87" t="s">
+      <c r="LC3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LD3" s="87" t="s">
+      <c r="LD3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LE3" s="87" t="s">
+      <c r="LE3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LF3" s="87" t="s">
+      <c r="LF3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LG3" s="87" t="s">
+      <c r="LG3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LH3" s="87" t="s">
+      <c r="LH3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LI3" s="87" t="s">
+      <c r="LI3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LJ3" s="87" t="s">
+      <c r="LJ3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LK3" s="87" t="s">
+      <c r="LK3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LL3" s="87" t="s">
+      <c r="LL3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LM3" s="87" t="s">
+      <c r="LM3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LN3" s="87" t="s">
+      <c r="LN3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LO3" s="87" t="s">
+      <c r="LO3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LP3" s="87" t="s">
+      <c r="LP3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LQ3" s="87" t="s">
+      <c r="LQ3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LR3" s="87" t="s">
+      <c r="LR3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LS3" s="87" t="s">
+      <c r="LS3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LT3" s="87" t="s">
+      <c r="LT3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LU3" s="87" t="s">
+      <c r="LU3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LV3" s="87" t="s">
+      <c r="LV3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LW3" s="87" t="s">
+      <c r="LW3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LX3" s="87" t="s">
+      <c r="LX3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LY3" s="87" t="s">
+      <c r="LY3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="LZ3" s="87" t="s">
+      <c r="LZ3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MA3" s="87" t="s">
+      <c r="MA3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MB3" s="87" t="s">
+      <c r="MB3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MC3" s="87" t="s">
+      <c r="MC3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MD3" s="87" t="s">
+      <c r="MD3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="ME3" s="87" t="s">
+      <c r="ME3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MF3" s="87" t="s">
+      <c r="MF3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MG3" s="87" t="s">
+      <c r="MG3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MH3" s="87" t="s">
+      <c r="MH3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MI3" s="87" t="s">
+      <c r="MI3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MJ3" s="87" t="s">
+      <c r="MJ3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MK3" s="87" t="s">
+      <c r="MK3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="ML3" s="87" t="s">
+      <c r="ML3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MM3" s="87" t="s">
+      <c r="MM3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MN3" s="87" t="s">
+      <c r="MN3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MO3" s="87" t="s">
+      <c r="MO3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MP3" s="87" t="s">
+      <c r="MP3" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="MQ3" s="87" t="s">
+      <c r="MQ3" s="83" t="s">
         <v>449</v>
       </c>
       <c r="MR3" s="45">
         <v>1</v>
       </c>
-      <c r="MS3" s="85">
+      <c r="MS3" s="81">
         <v>43101</v>
       </c>
       <c r="MT3" s="45" t="s">
@@ -8474,7 +8559,7 @@
       <c r="MU3" s="45">
         <v>1</v>
       </c>
-      <c r="MV3" s="85">
+      <c r="MV3" s="81">
         <v>43101</v>
       </c>
       <c r="MW3" s="45" t="s">
@@ -8483,7 +8568,7 @@
       <c r="MX3" s="45">
         <v>1</v>
       </c>
-      <c r="MY3" s="85">
+      <c r="MY3" s="81">
         <v>43148</v>
       </c>
       <c r="MZ3" s="45" t="s">
